--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -704,41 +704,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="118">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,7 +257,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}invariant-sourceid-1:When using the bc-sourceid-extension one of sourceId or userId must be populated. {extension.count()=1 or extension.count()=2}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -285,14 +285,21 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>2</t>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -308,10 +315,17 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>sourceID</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
@@ -705,7 +719,7 @@
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -713,7 +727,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1057,11 +1071,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>77</v>
@@ -1079,12 +1093,14 @@
         <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>75</v>
@@ -1121,19 +1137,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1145,10 +1161,10 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -1156,20 +1172,20 @@
         <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
@@ -1184,7 +1200,7 @@
         <v>30</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1235,7 +1251,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -1247,7 +1263,7 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -1255,7 +1271,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1355,7 +1371,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1384,7 +1400,7 @@
         <v>30</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1423,19 +1439,19 @@
         <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1447,7 +1463,7 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -1455,7 +1471,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1478,16 +1494,16 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1495,7 +1511,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>75</v>
@@ -1537,7 +1553,7 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>81</v>
@@ -1552,12 +1568,12 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1565,13 +1581,13 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -1580,13 +1596,13 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1637,7 +1653,7 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -1649,10 +1665,10 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -1660,20 +1676,20 @@
         <v>87</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -1688,7 +1704,7 @@
         <v>30</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1739,7 +1755,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1751,7 +1767,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -1759,7 +1775,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1859,7 +1875,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1888,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1927,19 +1943,19 @@
         <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -1951,7 +1967,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -1959,7 +1975,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1982,16 +1998,16 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -1999,7 +2015,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>75</v>
@@ -2041,7 +2057,7 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>81</v>
@@ -2056,12 +2072,12 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2069,13 +2085,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2084,13 +2100,13 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2141,7 +2157,7 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -2153,15 +2169,15 @@
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2184,16 +2200,16 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2243,7 +2259,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>81</v>
@@ -2258,12 +2274,12 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2286,13 +2302,13 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2343,7 +2359,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -2355,10 +2371,10 @@
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="117">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,7 +257,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}invariant-sourceid-1:When using the bc-sourceid-extension one of sourceId or userId must be populated. {extension.count()=1 or extension.count()=2}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>
@@ -313,10 +313,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>sourceID</t>
@@ -1161,7 +1157,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>86</v>
@@ -1172,7 +1168,7 @@
         <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>75</v>
@@ -1185,7 +1181,7 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
@@ -1200,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1263,7 +1259,7 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -1271,7 +1267,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1371,7 +1367,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1400,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1463,7 +1459,7 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -1471,7 +1467,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1494,16 +1490,16 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1511,7 +1507,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>75</v>
@@ -1553,27 +1549,27 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1587,7 +1583,7 @@
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -1596,13 +1592,13 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1653,22 +1649,22 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1676,7 +1672,7 @@
         <v>87</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>75</v>
@@ -1689,7 +1685,7 @@
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -1704,7 +1700,7 @@
         <v>30</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1767,7 +1763,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -1775,7 +1771,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1875,7 +1871,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1904,7 +1900,7 @@
         <v>30</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1967,7 +1963,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -1975,7 +1971,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1998,16 +1994,16 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2015,7 +2011,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>75</v>
@@ -2057,27 +2053,27 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2091,7 +2087,7 @@
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2100,13 +2096,13 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2157,27 +2153,27 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AJ14" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2200,16 +2196,16 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2259,27 +2255,27 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>109</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2302,13 +2298,13 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2359,22 +2355,22 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AJ16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,63 +256,63 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>sourceID</t>
@@ -955,7 +955,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -974,25 +974,25 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1043,31 +1043,31 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1086,16 +1086,16 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1133,19 +1133,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1157,15 +1157,15 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>97</v>
@@ -1178,7 +1178,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>98</v>
@@ -1190,7 +1190,7 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>30</v>
@@ -1247,7 +1247,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -1259,7 +1259,7 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
@@ -1278,25 +1278,25 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1347,22 +1347,22 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>86</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1390,7 +1390,7 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>30</v>
@@ -1435,19 +1435,19 @@
         <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1459,7 +1459,7 @@
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -1475,10 +1475,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>75</v>
@@ -1552,10 +1552,10 @@
         <v>107</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
@@ -1580,7 +1580,7 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>98</v>
@@ -1655,7 +1655,7 @@
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>115</v>
@@ -1682,7 +1682,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>98</v>
@@ -1694,7 +1694,7 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>30</v>
@@ -1751,7 +1751,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1763,7 +1763,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -1782,25 +1782,25 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1851,22 +1851,22 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>86</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -1894,7 +1894,7 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>30</v>
@@ -1939,19 +1939,19 @@
         <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AB12" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -1963,7 +1963,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -1979,10 +1979,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>75</v>
@@ -2056,10 +2056,10 @@
         <v>107</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
@@ -2084,7 +2084,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>98</v>
@@ -2159,7 +2159,7 @@
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
@@ -2181,10 +2181,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>75</v>
@@ -2258,10 +2258,10 @@
         <v>107</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>75</v>
@@ -2361,7 +2361,7 @@
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$16</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T22:48:36+00:00</t>
+    <t>2022-12-19T23:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -315,6 +318,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Extension.extension:sourceID</t>
+  </si>
+  <si>
     <t>sourceID</t>
   </si>
   <si>
@@ -324,10 +330,19 @@
     <t>An Extension</t>
   </si>
   <si>
+    <t>Extension.extension:sourceID.id</t>
+  </si>
+  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
+    <t>Extension.extension:sourceID.extension</t>
+  </si>
+  <si>
     <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:sourceID.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -352,6 +367,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Extension.extension:sourceID.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
@@ -372,7 +390,22 @@
 </t>
   </si>
   <si>
+    <t>Extension.extension:userID</t>
+  </si>
+  <si>
     <t>userID</t>
+  </si>
+  <si>
+    <t>Extension.extension:userID.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:userID.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:userID.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:userID.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -704,7 +737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -713,42 +746,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.84765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -860,93 +893,96 @@
       <c r="AJ1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
@@ -955,38 +991,41 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>82</v>
@@ -994,99 +1033,102 @@
       <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>89</v>
@@ -1097,200 +1139,206 @@
       <c r="M4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s" s="2">
+      <c r="AG5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>75</v>
+      <c r="AK5" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>82</v>
@@ -1298,503 +1346,518 @@
       <c r="L6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>75</v>
+      <c r="AK10" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>82</v>
@@ -1802,579 +1865,597 @@
       <c r="L11" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R15" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>113</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ16">
+  <autoFilter ref="A1:AK16">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -925,7 +929,7 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -991,7 +995,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>76</v>
@@ -1002,10 +1006,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1016,7 +1020,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1028,13 +1032,13 @@
         <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1085,13 +1089,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1100,19 +1104,19 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1131,16 +1135,16 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1178,19 +1182,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1202,21 +1206,21 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -1226,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>76</v>
@@ -1238,13 +1242,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1295,7 +1299,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1307,7 +1311,7 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -1315,10 +1319,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1329,7 +1333,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -1341,13 +1345,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1398,13 +1402,13 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
@@ -1413,15 +1417,15 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1444,13 +1448,13 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1489,19 +1493,19 @@
         <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -1513,7 +1517,7 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -1521,10 +1525,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1532,10 +1536,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -1547,16 +1551,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1564,7 +1568,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1606,13 +1610,13 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
@@ -1621,15 +1625,15 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1640,10 +1644,10 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>76</v>
@@ -1652,13 +1656,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1709,33 +1713,33 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -1745,10 +1749,10 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
@@ -1757,13 +1761,13 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1814,7 +1818,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -1826,7 +1830,7 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -1834,10 +1838,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1848,7 +1852,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -1860,13 +1864,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1917,13 +1921,13 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>76</v>
@@ -1932,15 +1936,15 @@
         <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1963,13 +1967,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2008,19 +2012,19 @@
         <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2032,7 +2036,7 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2040,10 +2044,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2051,10 +2055,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2066,16 +2070,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2083,7 +2087,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>76</v>
@@ -2125,13 +2129,13 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
@@ -2140,15 +2144,15 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2159,10 +2163,10 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
@@ -2171,13 +2175,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2228,30 +2232,30 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2259,10 +2263,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -2274,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2333,13 +2337,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -2348,15 +2352,15 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2379,13 +2383,13 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2436,22 +2440,22 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -375,10 +375,6 @@
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -1656,13 +1652,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1713,7 +1709,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1725,7 +1721,7 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>114</v>
@@ -1733,13 +1729,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -1838,7 +1834,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>104</v>
@@ -1941,7 +1937,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>106</v>
@@ -2044,7 +2040,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
@@ -2087,7 +2083,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>76</v>
@@ -2149,7 +2145,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>116</v>
@@ -2175,13 +2171,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2232,7 +2228,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2244,7 +2240,7 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>114</v>
@@ -2357,10 +2353,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2383,13 +2379,13 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2440,7 +2436,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2452,7 +2448,7 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>114</v>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$15</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="91">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T21:31:48+00:00</t>
+    <t>2023-06-28T23:19:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Element</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -531,10 +420,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -737,7 +626,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -748,1714 +637,1599 @@
   <cols>
     <col min="1" max="1" width="37.84765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>75</v>
+      <c r="AJ1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>56</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AG7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>114</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="AG12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AG14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>114</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>114</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK16">
+  <autoFilter ref="A1:AK15">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2465,7 +2239,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI15">
+  <conditionalFormatting sqref="A2:AI14">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -152,6 +152,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -205,10 +209,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.extension:sourceID</t>
@@ -768,7 +768,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>39</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -790,7 +790,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -802,13 +802,13 @@
         <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -859,13 +859,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -874,19 +874,19 @@
         <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -905,16 +905,16 @@
         <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -952,19 +952,19 @@
         <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>40</v>
@@ -976,10 +976,10 @@
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -987,7 +987,7 @@
         <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>63</v>
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>64</v>
@@ -1012,7 +1012,7 @@
         <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
@@ -1069,7 +1069,7 @@
         <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>40</v>
@@ -1081,7 +1081,7 @@
         <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>39</v>
@@ -1103,7 +1103,7 @@
         <v>40</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>39</v>
@@ -1115,13 +1115,13 @@
         <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1172,13 +1172,13 @@
         <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>39</v>
@@ -1187,7 +1187,7 @@
         <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1218,7 +1218,7 @@
         <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>30</v>
@@ -1263,19 +1263,19 @@
         <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>40</v>
@@ -1287,7 +1287,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -1306,10 +1306,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>39</v>
@@ -1383,10 +1383,10 @@
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
@@ -1414,7 +1414,7 @@
         <v>40</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>64</v>
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>80</v>
@@ -1489,7 +1489,7 @@
         <v>40</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>39</v>
@@ -1506,7 +1506,7 @@
         <v>84</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>85</v>
@@ -1519,7 +1519,7 @@
         <v>40</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>64</v>
@@ -1531,7 +1531,7 @@
         <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>30</v>
@@ -1588,7 +1588,7 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>40</v>
@@ -1600,7 +1600,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>39</v>
@@ -1634,13 +1634,13 @@
         <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1691,13 +1691,13 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>39</v>
@@ -1706,7 +1706,7 @@
         <v>39</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -1737,7 +1737,7 @@
         <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>30</v>
@@ -1782,19 +1782,19 @@
         <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>40</v>
@@ -1806,7 +1806,7 @@
         <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>39</v>
@@ -1825,10 +1825,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>39</v>
@@ -1902,10 +1902,10 @@
         <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>39</v>
@@ -1933,7 +1933,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>64</v>
@@ -1945,7 +1945,7 @@
         <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>80</v>
@@ -2008,7 +2008,7 @@
         <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>39</v>
@@ -2033,10 +2033,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>39</v>
@@ -2110,10 +2110,10 @@
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>39</v>
@@ -2216,7 +2216,7 @@
         <v>40</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$16</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T21:08:14+00:00</t>
+    <t>2024-01-19T19:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -626,7 +737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -637,1599 +748,1714 @@
   <cols>
     <col min="1" max="1" width="37.84765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>39</v>
+      <c r="G1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>57</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>39</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>77</v>
+      <c r="AI16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK15">
+  <autoFilter ref="A1:AK16">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2239,7 +2465,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI14">
+  <conditionalFormatting sqref="A2:AI15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -132,7 +132,31 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Extension</t>
+  </si>
+  <si>
+    <t>element:Patient.identifier</t>
+  </si>
+  <si>
+    <t>element:Patient.deceased</t>
+  </si>
+  <si>
+    <t>element:Patient.address</t>
+  </si>
+  <si>
+    <t>element:Patient.name</t>
+  </si>
+  <si>
+    <t>element:Patient.telecom</t>
+  </si>
+  <si>
+    <t>element:Patient.gender</t>
+  </si>
+  <si>
+    <t>element:Patient.birthDate</t>
+  </si>
+  <si>
+    <t>element:Patient.multipleBirth[x]</t>
   </si>
   <si>
     <t>ID</t>
@@ -558,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -728,6 +752,70 @@
       </c>
       <c r="B21" t="s" s="2">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -786,115 +874,115 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" hidden="true">
@@ -906,26 +994,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -936,1522 +1024,1522 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AC4" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>88</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>114</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-sourceId-extension.xlsx
+++ b/StructureDefinition-bc-sourceId-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
